--- a/data/case1/18/V2_2.xlsx
+++ b/data/case1/18/V2_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999384682092</v>
+        <v>0.99999999616223267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99489666633926377</v>
+        <v>0.99450466596984444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97131969528180884</v>
+        <v>0.97302612984653192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96327198110743284</v>
+        <v>0.96305391299206267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9556892306215421</v>
+        <v>0.95348689418406019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93757066773216846</v>
+        <v>0.92996322211706772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93168533873630088</v>
+        <v>0.92852461239672435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.92382679416574542</v>
+        <v>0.92724340695955676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.91416685994434788</v>
+        <v>0.92898510102145815</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9054232400264044</v>
+        <v>0.93170499133997331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.90416982081780406</v>
+        <v>0.93225075419772052</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9020413180745035</v>
+        <v>0.93354732580627764</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.89371529702973618</v>
+        <v>0.94184701235572743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.89081092077889479</v>
+        <v>0.9464492878681644</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.88943615704745582</v>
+        <v>0.95207150978729527</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.8883889275917709</v>
+        <v>0.95931112251518358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.88767455236382731</v>
+        <v>0.96206214793947276</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.88656563351064321</v>
+        <v>0.96394598126022313</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99384345834585774</v>
+        <v>0.99168302884510617</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98672640461601624</v>
+        <v>0.96888692145156785</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98532791620281723</v>
+        <v>0.96271845162810288</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98406341094238914</v>
+        <v>0.95270081190169442</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.95966029646773454</v>
+        <v>0.96599046650033427</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.93713540681315488</v>
+        <v>0.95296871559541341</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.92137275476395553</v>
+        <v>0.94651156878054854</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93700337077563423</v>
+        <v>0.92630621526140633</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93646755997732023</v>
+        <v>0.92145777196945478</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.93445537103884846</v>
+        <v>0.89997870443003536</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.93372958311462184</v>
+        <v>0.88470492511729526</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.93132345336975275</v>
+        <v>0.87813397880391553</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.91749079397418321</v>
+        <v>0.87047965784193582</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.91581150457860261</v>
+        <v>0.86880028122632202</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.91529149705225565</v>
+        <v>0.86828026181625384</v>
       </c>
     </row>
   </sheetData>
